--- a/Data/Transitions/19591964Translation.xlsx
+++ b/Data/Transitions/19591964Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="604">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1709,9 +1709,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3839,7 +3836,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>565</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3850,7 +3847,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4433,7 +4430,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4576,7 +4573,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>565</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4796,7 +4793,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4851,7 +4848,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4950,7 +4947,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5093,7 +5090,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5104,7 +5101,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5313,7 +5310,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5401,7 +5398,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5412,7 +5409,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5577,7 +5574,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5610,7 +5607,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5632,7 +5629,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5643,7 +5640,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5687,7 +5684,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5709,7 +5706,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5808,7 +5805,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5962,7 +5959,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6017,7 +6014,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6039,7 +6036,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6050,7 +6047,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6149,7 +6146,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6380,7 +6377,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6545,7 +6542,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6556,7 +6553,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6776,7 +6773,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7084,7 +7081,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7139,7 +7136,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7161,7 +7158,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7216,7 +7213,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7293,7 +7290,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7513,7 +7510,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7557,7 +7554,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7843,7 +7840,7 @@
         <v>515</v>
       </c>
       <c r="C514" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7997,7 +7994,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8019,7 +8016,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8041,7 +8038,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8052,7 +8049,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8096,7 +8093,7 @@
         <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="538" spans="1:3">
